--- a/ACreation_QR_Code/names.xlsx
+++ b/ACreation_QR_Code/names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alean\OneDrive\Desktop\Qr Code scanner\ACreation_QR_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alean\OneDrive\Desktop\python\Qr_Code_Project\ACreation_QR_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B3A0E-E316-48C2-B7C7-5FEA0B9DE5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A455357-E9CA-4CD0-B377-9E7F5CC97632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5510" yWindow="1970" windowWidth="19200" windowHeight="10010" xr2:uid="{BD9D8413-D1A9-4136-8FD1-186F030F3FB2}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{BD9D8413-D1A9-4136-8FD1-186F030F3FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Badong Beato</t>
-  </si>
-  <si>
-    <t>Raymond Pulang</t>
-  </si>
-  <si>
-    <t>Jacklyn De Guzmano</t>
-  </si>
-  <si>
-    <t>Katrina Garcia</t>
-  </si>
-  <si>
-    <t>Maria Lourdes Raquepo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Full Name</t>
   </si>
@@ -425,44 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756BB2F3-9882-47DE-B77E-BB4AFADD0F14}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
